--- a/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação do 2.2.xlsx
+++ b/Aula_Pratica_05/Preparação/Esquemas de raciocínio/Preparação do 2.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goncalo\Documents\FEUP\LSDi\Aula_Pratica_05\Preparação\Esquemas de raciocínio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,9 +96,6 @@
     <t>A ← 15</t>
   </si>
   <si>
-    <t>JUMP 0</t>
-  </si>
-  <si>
     <t>010</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>R2 ← C</t>
   </si>
   <si>
-    <t>JUMP 7</t>
-  </si>
-  <si>
     <t>00111</t>
   </si>
   <si>
@@ -121,12 +115,6 @@
   </si>
   <si>
     <t>A ← A - 1</t>
-  </si>
-  <si>
-    <t>JUMP 10</t>
-  </si>
-  <si>
-    <t>JUMP 8</t>
   </si>
   <si>
     <t>01000</t>
@@ -148,6 +136,18 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>JNZ 10</t>
+  </si>
+  <si>
+    <t>JNZ 7</t>
+  </si>
+  <si>
+    <t>JNZ 0</t>
+  </si>
+  <si>
+    <t>JNZ 8</t>
   </si>
 </sst>
 </file>
@@ -296,18 +296,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,16 +305,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="L1" sqref="L1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -623,31 +623,33 @@
     <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.88671875" customWidth="1"/>
     <col min="9" max="10" width="7.77734375" style="7" customWidth="1"/>
-    <col min="11" max="24" width="7.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="30" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
       <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
@@ -676,15 +678,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>16</v>
@@ -695,8 +697,8 @@
       <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3" si="0">BIN2HEX(CONCATENATE(B3,C3,D3))</f>
         <v>50</v>
@@ -706,18 +708,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>20</v>
@@ -726,9 +728,9 @@
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="5" t="str">
         <f t="shared" ref="I4:I13" si="2">BIN2HEX(CONCATENATE(B4,C4,D4))</f>
         <v>1E</v>
@@ -737,22 +739,23 @@
         <f t="shared" ref="J4:J13" si="3">BIN2DEC(CONCATENATE(B4,C4,D4))</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>36</v>
+      <c r="C5" s="29" t="s">
+        <v>32</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A8</v>
@@ -761,8 +764,9 @@
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
@@ -770,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>18</v>
@@ -782,9 +786,9 @@
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="5" t="str">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -793,22 +797,23 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A0</v>
@@ -817,8 +822,9 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
@@ -838,9 +844,9 @@
         <v>21</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -849,8 +855,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -858,21 +865,21 @@
         <v>13</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -881,22 +888,23 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>31</v>
+      <c r="C10" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
         <v>A7</v>
@@ -905,8 +913,9 @@
         <f t="shared" si="3"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
@@ -914,21 +923,21 @@
         <v>13</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -937,13 +946,14 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>15</v>
@@ -952,15 +962,15 @@
         <v>16</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="5" t="str">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -969,22 +979,23 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>40</v>
+      <c r="C13" s="29" t="s">
+        <v>36</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
@@ -993,8 +1004,9 @@
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1006,7 +1018,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1018,7 +1030,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -10886,18 +10898,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
